--- a/storage/excels/Contacts_report.xlsx
+++ b/storage/excels/Contacts_report.xlsx
@@ -38,19 +38,19 @@
     <t>User</t>
   </si>
   <si>
-    <t>Corporate</t>
-  </si>
-  <si>
-    <t>Organization</t>
-  </si>
-  <si>
-    <t>tracy@stan.com</t>
-  </si>
-  <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>Lamudi</t>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>Test Test</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>Prospect</t>
+  </si>
+  <si>
+    <t>Own Lead</t>
   </si>
   <si>
     <t>William Kamau</t>
@@ -420,12 +420,12 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8.712158000000001" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="8.712158000000001" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="16.424561" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
@@ -467,7 +467,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2">
-        <v>2387487423</v>
+        <v>32546267</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>

--- a/storage/excels/Contacts_report.xlsx
+++ b/storage/excels/Contacts_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>Type</t>
   </si>
@@ -41,6 +41,36 @@
     <t>Individual</t>
   </si>
   <si>
+    <t>First Last</t>
+  </si>
+  <si>
+    <t>first@gmail.com</t>
+  </si>
+  <si>
+    <t>Closed Out</t>
+  </si>
+  <si>
+    <t>Lamudi</t>
+  </si>
+  <si>
+    <t>William Kamau</t>
+  </si>
+  <si>
+    <t>will@g.com</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Own Lead</t>
+  </si>
+  <si>
+    <t>adam adam</t>
+  </si>
+  <si>
+    <t>a@g.com</t>
+  </si>
+  <si>
     <t>Test Test</t>
   </si>
   <si>
@@ -50,10 +80,37 @@
     <t>Prospect</t>
   </si>
   <si>
-    <t>Own Lead</t>
-  </si>
-  <si>
-    <t>William Kamau</t>
+    <t>Big Big</t>
+  </si>
+  <si>
+    <t>big@gmail.com</t>
+  </si>
+  <si>
+    <t>Corporate</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>tracy@stan.com</t>
+  </si>
+  <si>
+    <t>asdjkshad sdjfhskj</t>
+  </si>
+  <si>
+    <t>williadh@gmail.com</t>
+  </si>
+  <si>
+    <t>asdjak kjdfhjk</t>
+  </si>
+  <si>
+    <t>sdjkfhksj@jksd.com</t>
+  </si>
+  <si>
+    <t>dsajsdhjka skjhfksj</t>
+  </si>
+  <si>
+    <t>asjhd@ajksdhakj.com</t>
   </si>
 </sst>
 </file>
@@ -411,20 +468,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="2.285156" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="17.567139" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="10.568848" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="16.424561" bestFit="true" customWidth="true" style="0"/>
   </cols>
@@ -467,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="E2" s="2">
-        <v>32546267</v>
+        <v>2374682</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -476,6 +533,214 @@
         <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>706020966</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>5678888</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2">
+        <v>32546267</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2364572</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2387487423</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="2">
+        <v>82767834628</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="2">
+        <v>23423423</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2">
+        <v>34890</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="2" t="s">
         <v>12</v>
       </c>
     </row>
